--- a/06_june/June2023.xlsx
+++ b/06_june/June2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="96">
   <si>
     <t>Day</t>
   </si>
@@ -232,19 +232,76 @@
     <t>when create a challenge N achievement user got notification from notification template from diff locale</t>
   </si>
   <si>
+    <t xml:space="preserve">worked on the notification modules whereas if webMobile is unchecked notify should not got of user mobile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on the where we create a challenge in all local and notification templt of chlg regtr of all local notification shold got of users </t>
+  </si>
+  <si>
+    <t>work on the when diff local of challenge regitr and notif templt notification not got user</t>
+  </si>
+  <si>
+    <t>work on when user want to connected with my local through mobile notifi should got on join locale vai passcode</t>
+  </si>
+  <si>
+    <t>verify the same locale and all locale notification on user got or not and raised pr</t>
+  </si>
+  <si>
+    <t>discuss with channi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scanrio 6  and scanrio 7 understand from channi and verify them on the local system </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WBX-3120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reads docs of push garmin api from download developer portal and verfify some port code  wbx </t>
+  </si>
+  <si>
+    <t>WBX-4748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on the pagination issue and no record issue where showing before listing in user, community, annoucement, program modules </t>
+  </si>
+  <si>
     <t>pending</t>
   </si>
   <si>
-    <t xml:space="preserve">worked on the notification modules whereas if webMobile is unchecked notify should not got of user mobile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">worked on the where we create a challenge in all local and notification templt of chlg regtr of all local notification shold got of users </t>
-  </si>
-  <si>
-    <t>work on the when diff local of challenge regitr and notif templt notification not got user</t>
-  </si>
-  <si>
-    <t>work on when user want to connected with my local through mobile notifi should got on join locale vai passcode</t>
+    <t>WBX-4836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the unique username issue and challenge map name validation issue and user should be edit user module </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint </t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>meeting with nidhi and all developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time estimation </t>
+  </si>
+  <si>
+    <t>mon 11:00AM to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>WBX-4795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merchant should be able create store on merchant side </t>
+  </si>
+  <si>
+    <t>work on the when we create challenge any specific locale if notification templates  made on diff two locale notification should be got</t>
+  </si>
+  <si>
+    <t>all hand's meeting with binod</t>
   </si>
 </sst>
 </file>
@@ -252,12 +309,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="h:mm"/>
   </numFmts>
   <fonts count="23">
@@ -300,7 +357,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,16 +392,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,14 +425,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,18 +454,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,25 +470,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +484,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -468,49 +525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,13 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,13 +579,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,67 +681,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,32 +864,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,6 +912,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -871,25 +937,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,7 +964,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,145 +976,142 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,7 +1120,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,7 +1153,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1108,7 +1165,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1177,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,6 +1210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,9 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1484,10 +1541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P147"/>
+  <dimension ref="A3:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="J175" sqref="J175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3735,7 +3792,7 @@
       <c r="M134" s="10"/>
       <c r="N134" s="10"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:14">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5" t="s">
@@ -3758,9 +3815,6 @@
       <c r="L135" s="10"/>
       <c r="M135" s="10"/>
       <c r="N135" s="10"/>
-      <c r="P135" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="30"/>
@@ -3863,7 +3917,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="F140" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G140" s="28"/>
       <c r="H140" s="28"/>
@@ -3903,7 +3957,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
@@ -3917,18 +3971,18 @@
     <row r="143" spans="1:14">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="36"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="38"/>
-      <c r="K143" s="38"/>
-      <c r="L143" s="38"/>
-      <c r="M143" s="38"/>
-      <c r="N143" s="38"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="4"/>
@@ -3943,7 +3997,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
@@ -3979,8 +4033,8 @@
       <c r="N145" s="10"/>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="39"/>
-      <c r="B146" s="39"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
       <c r="C146" s="5" t="s">
         <v>62</v>
       </c>
@@ -3991,7 +4045,7 @@
         <v>0.270833333333333</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
@@ -4003,18 +4057,442 @@
       <c r="N146" s="10"/>
     </row>
     <row r="147" spans="6:14">
-      <c r="F147" s="38"/>
-      <c r="G147" s="38"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="38"/>
-      <c r="J147" s="38"/>
-      <c r="K147" s="38"/>
-      <c r="L147" s="38"/>
-      <c r="M147" s="38"/>
-      <c r="N147" s="38"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="4">
+        <v>45092</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="F152" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="28"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="28"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D153" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="E153" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D154" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E154" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="10"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="E155" s="8">
+        <v>0.131944444444444</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D156" s="8">
+        <v>0.131944444444444</v>
+      </c>
+      <c r="E156" s="29">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="P156" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="157" spans="6:14">
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="4">
+        <v>45093</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D161" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" s="6">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E162" s="6">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="28"/>
+      <c r="P162" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D163" s="6">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="E163" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F163" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="28"/>
+      <c r="L163" s="28"/>
+      <c r="M163" s="28"/>
+      <c r="N163" s="28"/>
+      <c r="P163" t="s">
+        <v>89</v>
+      </c>
+      <c r="R163" t="s">
+        <v>90</v>
+      </c>
+      <c r="S163" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D164" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E164" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D165" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E165" s="8">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="Q165" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="36"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="37"/>
+      <c r="D166" s="38"/>
+      <c r="E166" s="38"/>
+      <c r="F166" s="39"/>
+      <c r="G166" s="39"/>
+      <c r="H166" s="39"/>
+      <c r="I166" s="39"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="39"/>
+      <c r="L166" s="39"/>
+      <c r="M166" s="39"/>
+      <c r="N166" s="39"/>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="36"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D167" s="29">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="E167" s="29">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G167" s="28"/>
+      <c r="H167" s="28"/>
+      <c r="I167" s="28"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="28"/>
+      <c r="L167" s="28"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="161">
     <mergeCell ref="F10:N10"/>
     <mergeCell ref="F11:N11"/>
     <mergeCell ref="F12:N12"/>
@@ -4079,6 +4557,19 @@
     <mergeCell ref="F139:N139"/>
     <mergeCell ref="F144:N144"/>
     <mergeCell ref="F145:N145"/>
+    <mergeCell ref="F149:N149"/>
+    <mergeCell ref="F150:N150"/>
+    <mergeCell ref="F151:N151"/>
+    <mergeCell ref="F152:N152"/>
+    <mergeCell ref="F153:N153"/>
+    <mergeCell ref="F154:N154"/>
+    <mergeCell ref="F155:N155"/>
+    <mergeCell ref="F160:N160"/>
+    <mergeCell ref="F161:N161"/>
+    <mergeCell ref="F162:N162"/>
+    <mergeCell ref="F163:N163"/>
+    <mergeCell ref="F164:N164"/>
+    <mergeCell ref="F167:N167"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A30:A32"/>
@@ -4093,6 +4584,8 @@
     <mergeCell ref="A119:A126"/>
     <mergeCell ref="A131:A135"/>
     <mergeCell ref="A139:A146"/>
+    <mergeCell ref="A150:A156"/>
+    <mergeCell ref="A161:A167"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B30:B32"/>
@@ -4107,6 +4600,8 @@
     <mergeCell ref="B119:B126"/>
     <mergeCell ref="B131:B135"/>
     <mergeCell ref="B139:B146"/>
+    <mergeCell ref="B150:B156"/>
+    <mergeCell ref="B161:B167"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C81:C82"/>
@@ -4116,6 +4611,7 @@
     <mergeCell ref="C124:C125"/>
     <mergeCell ref="C140:C141"/>
     <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C165:C166"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="D81:D82"/>
@@ -4125,6 +4621,7 @@
     <mergeCell ref="D124:D125"/>
     <mergeCell ref="D140:D141"/>
     <mergeCell ref="D142:D143"/>
+    <mergeCell ref="D165:D166"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="E81:E82"/>
@@ -4134,6 +4631,7 @@
     <mergeCell ref="E124:E125"/>
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="E142:E143"/>
+    <mergeCell ref="E165:E166"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="F18:N19"/>
     <mergeCell ref="C24:N26"/>
@@ -4154,6 +4652,8 @@
     <mergeCell ref="F140:N141"/>
     <mergeCell ref="F142:N143"/>
     <mergeCell ref="F146:N147"/>
+    <mergeCell ref="F156:N157"/>
+    <mergeCell ref="F165:N166"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/06_june/June2023.xlsx
+++ b/06_june/June2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="112">
   <si>
     <t>Day</t>
   </si>
@@ -265,33 +265,15 @@
     <t xml:space="preserve">Work on the pagination issue and no record issue where showing before listing in user, community, annoucement, program modules </t>
   </si>
   <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>WBX-4836</t>
   </si>
   <si>
     <t xml:space="preserve">work on the unique username issue and challenge map name validation issue and user should be edit user module </t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint </t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
     <t>meeting with nidhi and all developers</t>
   </si>
   <si>
-    <t xml:space="preserve">time estimation </t>
-  </si>
-  <si>
-    <t>mon 11:00AM to</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>WBX-4795</t>
   </si>
   <si>
@@ -301,7 +283,73 @@
     <t>work on the when we create challenge any specific locale if notification templates  made on diff two locale notification should be got</t>
   </si>
   <si>
-    <t>all hand's meeting with binod</t>
+    <t>all wbx team meeting with binod</t>
+  </si>
+  <si>
+    <t>WBX-4769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on the logout login dual message displayed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the pagination issue where showing pagination  before the listing try to solved in every module </t>
+  </si>
+  <si>
+    <t>WBX-4767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the description validation of team and challenge and special sale and tracker </t>
+  </si>
+  <si>
+    <t>WBX-4788</t>
+  </si>
+  <si>
+    <t>work on profile picture when we anything in edit profile picture does not show admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raised the pr and rebase the pr and merged from faizan </t>
+  </si>
+  <si>
+    <t>try profile picture should be shown update anything update on merchant side</t>
+  </si>
+  <si>
+    <t>WBX-4731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the challenge validation of every fields and displayed the correct messages of images </t>
+  </si>
+  <si>
+    <t>scanario understand from faizan</t>
+  </si>
+  <si>
+    <t>WBX-4837</t>
+  </si>
+  <si>
+    <t>reviewed pr</t>
+  </si>
+  <si>
+    <t>work on the phone number of locale validation and store reedem code validations</t>
+  </si>
+  <si>
+    <t>work on the double error logout messages of admin side and merchat side same time</t>
+  </si>
+  <si>
+    <t>work on the pagination issue where showing pagination before the listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the user should be able to create store </t>
+  </si>
+  <si>
+    <t>work on the pagination issue where admin side and merchant side and tracker side and update code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the description validation issue </t>
+  </si>
+  <si>
+    <t>try to solve the image issue where update the code and solve comments of all pr</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -309,12 +357,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="mmm/yy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="182" formatCode="h:mm"/>
   </numFmts>
   <fonts count="23">
@@ -363,43 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -407,17 +418,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,9 +442,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,9 +472,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,15 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +520,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +579,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,97 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,25 +717,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,30 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -927,15 +951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -947,6 +962,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,145 +1021,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,7 +1168,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,7 +1201,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1165,7 +1213,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,7 +1225,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="5" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,17 +1258,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1541,10 +1580,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:S167"/>
+  <dimension ref="A3:P207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="J175" sqref="J175"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4243,7 +4282,7 @@
       <c r="M155" s="10"/>
       <c r="N155" s="10"/>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:14">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5" t="s">
@@ -4266,9 +4305,6 @@
       <c r="L156" s="10"/>
       <c r="M156" s="10"/>
       <c r="N156" s="10"/>
-      <c r="P156" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="157" spans="6:14">
       <c r="F157" s="10"/>
@@ -4317,7 +4353,7 @@
         <v>45093</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D161" s="6">
         <v>0.395833333333333</v>
@@ -4337,7 +4373,7 @@
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:14">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5" t="s">
@@ -4350,7 +4386,7 @@
         <v>0.444444444444444</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G162" s="28"/>
       <c r="H162" s="28"/>
@@ -4360,18 +4396,12 @@
       <c r="L162" s="28"/>
       <c r="M162" s="28"/>
       <c r="N162" s="28"/>
-      <c r="P162" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19">
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D163" s="6">
         <v>0.444444444444444</v>
@@ -4380,7 +4410,7 @@
         <v>0.458333333333333</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
@@ -4390,21 +4420,12 @@
       <c r="L163" s="28"/>
       <c r="M163" s="28"/>
       <c r="N163" s="28"/>
-      <c r="P163" t="s">
-        <v>89</v>
-      </c>
-      <c r="R163" t="s">
-        <v>90</v>
-      </c>
-      <c r="S163" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D164" s="6">
         <v>0.458333333333333</v>
@@ -4413,7 +4434,7 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
@@ -4424,7 +4445,7 @@
       <c r="M164" s="10"/>
       <c r="N164" s="10"/>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:14">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="9" t="s">
@@ -4437,7 +4458,7 @@
         <v>0.229166666666667</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
@@ -4447,31 +4468,28 @@
       <c r="L165" s="10"/>
       <c r="M165" s="10"/>
       <c r="N165" s="10"/>
-      <c r="Q165" t="s">
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="5" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
-      <c r="A166" s="36"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="38"/>
-      <c r="E166" s="38"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="39"/>
-      <c r="I166" s="39"/>
-      <c r="J166" s="39"/>
-      <c r="K166" s="39"/>
-      <c r="L166" s="39"/>
-      <c r="M166" s="39"/>
-      <c r="N166" s="39"/>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" s="36"/>
-      <c r="B167" s="36"/>
-      <c r="C167" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D167" s="29">
         <v>0.229166666666667</v>
@@ -4480,7 +4498,7 @@
         <v>0.270833333333333</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G167" s="28"/>
       <c r="H167" s="28"/>
@@ -4491,8 +4509,745 @@
       <c r="M167" s="28"/>
       <c r="N167" s="28"/>
     </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="13"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
+      <c r="M171" s="13"/>
+      <c r="N171" s="31"/>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="15">
+        <v>45094</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+      <c r="N172" s="32"/>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+      <c r="J173" s="21"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="21"/>
+      <c r="M173" s="21"/>
+      <c r="N173" s="33"/>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="22"/>
+      <c r="B174" s="23"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="25"/>
+      <c r="K174" s="25"/>
+      <c r="L174" s="25"/>
+      <c r="M174" s="25"/>
+      <c r="N174" s="34"/>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="26"/>
+      <c r="M175" s="26"/>
+      <c r="N175" s="26"/>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="26"/>
+      <c r="N176" s="26"/>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="31"/>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B178" s="15">
+        <v>45095</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="32"/>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="18"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
+      <c r="J179" s="21"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="21"/>
+      <c r="M179" s="21"/>
+      <c r="N179" s="33"/>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="25"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="25"/>
+      <c r="K180" s="25"/>
+      <c r="L180" s="25"/>
+      <c r="M180" s="25"/>
+      <c r="N180" s="34"/>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="4">
+        <v>45096</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D184" s="6">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D185" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E185" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F185" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="28"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="28"/>
+      <c r="M185" s="28"/>
+      <c r="N185" s="28"/>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D186" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E186" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F186" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G186" s="28"/>
+      <c r="H186" s="28"/>
+      <c r="I186" s="28"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="28"/>
+      <c r="L186" s="28"/>
+      <c r="M186" s="28"/>
+      <c r="N186" s="28"/>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D187" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E187" s="29">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10"/>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="30"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="30"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
+      <c r="F188" s="30"/>
+      <c r="G188" s="30"/>
+      <c r="H188" s="30"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
+      <c r="K188" s="30"/>
+      <c r="L188" s="30"/>
+      <c r="M188" s="30"/>
+      <c r="N188" s="30"/>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="30"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="30"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
+      <c r="F189" s="30"/>
+      <c r="G189" s="30"/>
+      <c r="H189" s="30"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="30"/>
+      <c r="M189" s="30"/>
+      <c r="N189" s="30"/>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B191" s="4">
+        <v>45097</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D191" s="6">
+        <v>0.409722222222222</v>
+      </c>
+      <c r="E191" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D192" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="E192" s="6">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F192" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G192" s="28"/>
+      <c r="H192" s="28"/>
+      <c r="I192" s="28"/>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="28"/>
+      <c r="M192" s="28"/>
+      <c r="N192" s="28"/>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D193" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E193" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
+      <c r="L193" s="28"/>
+      <c r="M193" s="28"/>
+      <c r="N193" s="28"/>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="27"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="28"/>
+      <c r="M194" s="28"/>
+      <c r="N194" s="28"/>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D195" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E195" s="8">
+        <v>0.0902777777777778</v>
+      </c>
+      <c r="F195" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G195" s="28"/>
+      <c r="H195" s="28"/>
+      <c r="I195" s="28"/>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="28"/>
+      <c r="N195" s="28"/>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D196" s="8">
+        <v>0.0902777777777778</v>
+      </c>
+      <c r="E196" s="8">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F196" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G196" s="28"/>
+      <c r="H196" s="28"/>
+      <c r="I196" s="28"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
+      <c r="L196" s="28"/>
+      <c r="M196" s="28"/>
+      <c r="N196" s="28"/>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" s="8">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E197" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F197" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G197" s="28"/>
+      <c r="H197" s="28"/>
+      <c r="I197" s="28"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="28"/>
+      <c r="M197" s="28"/>
+      <c r="N197" s="28"/>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D198" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="E198" s="29">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G198" s="28"/>
+      <c r="H198" s="28"/>
+      <c r="I198" s="28"/>
+      <c r="J198" s="28"/>
+      <c r="K198" s="28"/>
+      <c r="L198" s="28"/>
+      <c r="M198" s="28"/>
+      <c r="N198" s="28"/>
+    </row>
+    <row r="199" spans="3:14">
+      <c r="C199" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D199" s="29">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E199" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F199" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G199" s="28"/>
+      <c r="H199" s="28"/>
+      <c r="I199" s="28"/>
+      <c r="J199" s="28"/>
+      <c r="K199" s="28"/>
+      <c r="L199" s="28"/>
+      <c r="M199" s="28"/>
+      <c r="N199" s="28"/>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B203" s="4">
+        <v>45098</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D203" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E203" s="6">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+      <c r="I203" s="7"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7"/>
+      <c r="N203" s="7"/>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D204" s="6">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="E204" s="6">
+        <v>0.486111111111111</v>
+      </c>
+      <c r="F204" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G204" s="28"/>
+      <c r="H204" s="28"/>
+      <c r="I204" s="28"/>
+      <c r="J204" s="28"/>
+      <c r="K204" s="28"/>
+      <c r="L204" s="28"/>
+      <c r="M204" s="28"/>
+      <c r="N204" s="28"/>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D205" s="6">
+        <v>0.486111111111111</v>
+      </c>
+      <c r="E205" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F205" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G205" s="28"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28"/>
+      <c r="L205" s="28"/>
+      <c r="M205" s="28"/>
+      <c r="N205" s="28"/>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D206" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E206" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
+      <c r="L206" s="10"/>
+      <c r="M206" s="10"/>
+      <c r="N206" s="10"/>
+    </row>
+    <row r="207" spans="1:16">
+      <c r="A207" s="36"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D207" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E207" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F207" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
+      <c r="L207" s="10"/>
+      <c r="M207" s="10"/>
+      <c r="N207" s="10"/>
+      <c r="P207" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="198">
     <mergeCell ref="F10:N10"/>
     <mergeCell ref="F11:N11"/>
     <mergeCell ref="F12:N12"/>
@@ -4570,6 +5325,27 @@
     <mergeCell ref="F163:N163"/>
     <mergeCell ref="F164:N164"/>
     <mergeCell ref="F167:N167"/>
+    <mergeCell ref="C171:N171"/>
+    <mergeCell ref="C177:N177"/>
+    <mergeCell ref="F183:N183"/>
+    <mergeCell ref="F184:N184"/>
+    <mergeCell ref="F185:N185"/>
+    <mergeCell ref="F186:N186"/>
+    <mergeCell ref="F187:N187"/>
+    <mergeCell ref="F190:N190"/>
+    <mergeCell ref="F191:N191"/>
+    <mergeCell ref="F192:N192"/>
+    <mergeCell ref="F195:N195"/>
+    <mergeCell ref="F196:N196"/>
+    <mergeCell ref="F197:N197"/>
+    <mergeCell ref="F198:N198"/>
+    <mergeCell ref="F199:N199"/>
+    <mergeCell ref="F202:N202"/>
+    <mergeCell ref="F203:N203"/>
+    <mergeCell ref="F204:N204"/>
+    <mergeCell ref="F205:N205"/>
+    <mergeCell ref="F206:N206"/>
+    <mergeCell ref="F207:N207"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A30:A32"/>
@@ -4586,6 +5362,11 @@
     <mergeCell ref="A139:A146"/>
     <mergeCell ref="A150:A156"/>
     <mergeCell ref="A161:A167"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A178:A180"/>
+    <mergeCell ref="A184:A187"/>
+    <mergeCell ref="A191:A198"/>
+    <mergeCell ref="A203:A207"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B30:B32"/>
@@ -4602,6 +5383,11 @@
     <mergeCell ref="B139:B146"/>
     <mergeCell ref="B150:B156"/>
     <mergeCell ref="B161:B167"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="B178:B180"/>
+    <mergeCell ref="B184:B187"/>
+    <mergeCell ref="B191:B198"/>
+    <mergeCell ref="B203:B207"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C81:C82"/>
@@ -4612,6 +5398,7 @@
     <mergeCell ref="C140:C141"/>
     <mergeCell ref="C142:C143"/>
     <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C193:C194"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="D81:D82"/>
@@ -4622,6 +5409,7 @@
     <mergeCell ref="D140:D141"/>
     <mergeCell ref="D142:D143"/>
     <mergeCell ref="D165:D166"/>
+    <mergeCell ref="D193:D194"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="E81:E82"/>
@@ -4632,6 +5420,7 @@
     <mergeCell ref="E140:E141"/>
     <mergeCell ref="E142:E143"/>
     <mergeCell ref="E165:E166"/>
+    <mergeCell ref="E193:E194"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="F18:N19"/>
     <mergeCell ref="C24:N26"/>
@@ -4654,6 +5443,9 @@
     <mergeCell ref="F146:N147"/>
     <mergeCell ref="F156:N157"/>
     <mergeCell ref="F165:N166"/>
+    <mergeCell ref="C172:N174"/>
+    <mergeCell ref="C178:N180"/>
+    <mergeCell ref="F193:N194"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/06_june/June2023.xlsx
+++ b/06_june/June2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="153">
   <si>
     <t>Day</t>
   </si>
@@ -349,7 +349,130 @@
     <t>try to solve the image issue where update the code and solve comments of all pr</t>
   </si>
   <si>
-    <t>Pending</t>
+    <t>work on the challenge validation and solve git comments update code push</t>
+  </si>
+  <si>
+    <t>WBX-4786</t>
+  </si>
+  <si>
+    <t>work on the store no record found issue where no coupon</t>
+  </si>
+  <si>
+    <t>work on the merchant side pagination and admin-payment side pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solve the git comments and rebase the branch and merged </t>
+  </si>
+  <si>
+    <t>rebase the pr and merged the branch into master</t>
+  </si>
+  <si>
+    <t>work on the image issue on merchant side</t>
+  </si>
+  <si>
+    <t>WBX-4873</t>
+  </si>
+  <si>
+    <t>WBX-4677</t>
+  </si>
+  <si>
+    <t>work on the store address issue where type address store not google addressed</t>
+  </si>
+  <si>
+    <t>WBX-4630</t>
+  </si>
+  <si>
+    <t>work on the merchant store address please select address from drop down should see</t>
+  </si>
+  <si>
+    <t>Work on the address validation on store add edit and raise the pr</t>
+  </si>
+  <si>
+    <t>Birthday celebration</t>
+  </si>
+  <si>
+    <t>WBX-4812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the custom fields issue in user module where change value should be there </t>
+  </si>
+  <si>
+    <t>WBX-4872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on the merchant side profile image </t>
+  </si>
+  <si>
+    <t>work on the notification thumbnail issue where super admin cannot create coupon</t>
+  </si>
+  <si>
+    <t>WBX-4882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try to figure out the merchant side edit profile information why don't get </t>
+  </si>
+  <si>
+    <t>work on the store address issue where type address store into the db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify all the usecases where create coupon and explain to sandeep </t>
+  </si>
+  <si>
+    <t>work on the store addresss fields issue</t>
+  </si>
+  <si>
+    <t>updated the code and rebase the branch</t>
+  </si>
+  <si>
+    <t>work on the profileInfoDropdown menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr rebase and store address working expain to faizan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the billing address type stored not saved in db </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove unwanted conditions N code and verify all the usecases from sandeep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr rebase and merged from faizan and explain </t>
+  </si>
+  <si>
+    <t>WBX-4823</t>
+  </si>
+  <si>
+    <t>work on the all wbx modules update button should be enable after image update</t>
+  </si>
+  <si>
+    <t>Eid Holiday</t>
+  </si>
+  <si>
+    <t>WBX-4905</t>
+  </si>
+  <si>
+    <t>WBX-4866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work on the no record found issue in merchant N participant in sale and special sale </t>
+  </si>
+  <si>
+    <t>WBX-4829</t>
+  </si>
+  <si>
+    <t>work on the substring search issue in mobile tracker list,  coupon list N program list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussion with prem </t>
+  </si>
+  <si>
+    <t>work on the team list searching substring issue N communities, challenge N achievements</t>
+  </si>
+  <si>
+    <t>work on the pending wbx modules update button should be enable after image update</t>
+  </si>
+  <si>
+    <t>WBX-4904</t>
   </si>
 </sst>
 </file>
@@ -361,8 +484,8 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="182" formatCode="h:mm"/>
   </numFmts>
   <fonts count="23">
@@ -404,6 +527,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -418,27 +571,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,8 +586,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,8 +617,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -487,23 +647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -512,29 +657,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,13 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,97 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +726,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,19 +828,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +1035,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -923,6 +1066,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,21 +1109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -989,30 +1132,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1024,136 +1147,136 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,7 +1291,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,7 +1324,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,7 +1336,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,7 +1348,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="5" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="5" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="5" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,7 +1381,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="3" fillId="4" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="4" borderId="2" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1580,10 +1703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P207"/>
+  <dimension ref="A3:N284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="H211" sqref="H211"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5219,9 +5342,9 @@
       <c r="M206" s="10"/>
       <c r="N206" s="10"/>
     </row>
-    <row r="207" spans="1:16">
-      <c r="A207" s="36"/>
-      <c r="B207" s="36"/>
+    <row r="207" spans="1:14">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="5" t="s">
         <v>95</v>
       </c>
@@ -5242,12 +5365,1453 @@
       <c r="L207" s="10"/>
       <c r="M207" s="10"/>
       <c r="N207" s="10"/>
-      <c r="P207" t="s">
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="4">
+        <v>45099</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D211" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E211" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+      <c r="I211" s="7"/>
+      <c r="J211" s="7"/>
+      <c r="K211" s="7"/>
+      <c r="L211" s="7"/>
+      <c r="M211" s="7"/>
+      <c r="N211" s="7"/>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D212" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E212" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F212" s="28" t="s">
         <v>111</v>
       </c>
+      <c r="G212" s="28"/>
+      <c r="H212" s="28"/>
+      <c r="I212" s="28"/>
+      <c r="J212" s="28"/>
+      <c r="K212" s="28"/>
+      <c r="L212" s="28"/>
+      <c r="M212" s="28"/>
+      <c r="N212" s="28"/>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D213" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E213" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F213" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G213" s="28"/>
+      <c r="H213" s="28"/>
+      <c r="I213" s="28"/>
+      <c r="J213" s="28"/>
+      <c r="K213" s="28"/>
+      <c r="L213" s="28"/>
+      <c r="M213" s="28"/>
+      <c r="N213" s="28"/>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D214" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E214" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F214" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+      <c r="K214" s="10"/>
+      <c r="L214" s="10"/>
+      <c r="M214" s="10"/>
+      <c r="N214" s="10"/>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D215" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E215" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="F215" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10"/>
+      <c r="L215" s="10"/>
+      <c r="M215" s="10"/>
+      <c r="N215" s="10"/>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D216" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="E216" s="8">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D217" s="8">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E217" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F217" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" s="4">
+        <v>45100</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D221" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E221" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F221" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7"/>
+      <c r="I221" s="7"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="7"/>
+      <c r="L221" s="7"/>
+      <c r="M221" s="7"/>
+      <c r="N221" s="7"/>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D222" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E222" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F222" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G222" s="28"/>
+      <c r="H222" s="28"/>
+      <c r="I222" s="28"/>
+      <c r="J222" s="28"/>
+      <c r="K222" s="28"/>
+      <c r="L222" s="28"/>
+      <c r="M222" s="28"/>
+      <c r="N222" s="28"/>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D223" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E223" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F223" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G223" s="28"/>
+      <c r="H223" s="28"/>
+      <c r="I223" s="28"/>
+      <c r="J223" s="28"/>
+      <c r="K223" s="28"/>
+      <c r="L223" s="28"/>
+      <c r="M223" s="28"/>
+      <c r="N223" s="28"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D224" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E224" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="10"/>
+      <c r="N224" s="10"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D225" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E225" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="10"/>
+      <c r="N225" s="10"/>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D226" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="E226" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="10"/>
+      <c r="N226" s="10"/>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+      <c r="N230" s="31"/>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B231" s="15">
+        <v>45101</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="17"/>
+      <c r="L231" s="17"/>
+      <c r="M231" s="17"/>
+      <c r="N231" s="32"/>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="18"/>
+      <c r="B232" s="19"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21"/>
+      <c r="I232" s="21"/>
+      <c r="J232" s="21"/>
+      <c r="K232" s="21"/>
+      <c r="L232" s="21"/>
+      <c r="M232" s="21"/>
+      <c r="N232" s="33"/>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="22"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="25"/>
+      <c r="E233" s="25"/>
+      <c r="F233" s="25"/>
+      <c r="G233" s="25"/>
+      <c r="H233" s="25"/>
+      <c r="I233" s="25"/>
+      <c r="J233" s="25"/>
+      <c r="K233" s="25"/>
+      <c r="L233" s="25"/>
+      <c r="M233" s="25"/>
+      <c r="N233" s="34"/>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
+      <c r="F234" s="26"/>
+      <c r="G234" s="26"/>
+      <c r="H234" s="26"/>
+      <c r="I234" s="26"/>
+      <c r="J234" s="26"/>
+      <c r="K234" s="26"/>
+      <c r="L234" s="26"/>
+      <c r="M234" s="26"/>
+      <c r="N234" s="26"/>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
+      <c r="F235" s="26"/>
+      <c r="G235" s="26"/>
+      <c r="H235" s="26"/>
+      <c r="I235" s="26"/>
+      <c r="J235" s="26"/>
+      <c r="K235" s="26"/>
+      <c r="L235" s="26"/>
+      <c r="M235" s="26"/>
+      <c r="N235" s="26"/>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="13"/>
+      <c r="L236" s="13"/>
+      <c r="M236" s="13"/>
+      <c r="N236" s="31"/>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B237" s="15">
+        <v>45102</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
+      <c r="K237" s="17"/>
+      <c r="L237" s="17"/>
+      <c r="M237" s="17"/>
+      <c r="N237" s="32"/>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" s="18"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+      <c r="I238" s="21"/>
+      <c r="J238" s="21"/>
+      <c r="K238" s="21"/>
+      <c r="L238" s="21"/>
+      <c r="M238" s="21"/>
+      <c r="N238" s="33"/>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" s="22"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="25"/>
+      <c r="E239" s="25"/>
+      <c r="F239" s="25"/>
+      <c r="G239" s="25"/>
+      <c r="H239" s="25"/>
+      <c r="I239" s="25"/>
+      <c r="J239" s="25"/>
+      <c r="K239" s="25"/>
+      <c r="L239" s="25"/>
+      <c r="M239" s="25"/>
+      <c r="N239" s="34"/>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" s="4">
+        <v>45103</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D243" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E243" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F243" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7"/>
+      <c r="I243" s="7"/>
+      <c r="J243" s="7"/>
+      <c r="K243" s="7"/>
+      <c r="L243" s="7"/>
+      <c r="M243" s="7"/>
+      <c r="N243" s="7"/>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D244" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E244" s="6">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="F244" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G244" s="28"/>
+      <c r="H244" s="28"/>
+      <c r="I244" s="28"/>
+      <c r="J244" s="28"/>
+      <c r="K244" s="28"/>
+      <c r="L244" s="28"/>
+      <c r="M244" s="28"/>
+      <c r="N244" s="28"/>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D245" s="6">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="E245" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D246" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E246" s="8">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="F246" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G246" s="28"/>
+      <c r="H246" s="28"/>
+      <c r="I246" s="28"/>
+      <c r="J246" s="28"/>
+      <c r="K246" s="28"/>
+      <c r="L246" s="28"/>
+      <c r="M246" s="28"/>
+      <c r="N246" s="28"/>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D247" s="8">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="E247" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F247" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G247" s="28"/>
+      <c r="H247" s="28"/>
+      <c r="I247" s="28"/>
+      <c r="J247" s="28"/>
+      <c r="K247" s="28"/>
+      <c r="L247" s="28"/>
+      <c r="M247" s="28"/>
+      <c r="N247" s="28"/>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D248" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E248" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10"/>
+      <c r="L248" s="10"/>
+      <c r="M248" s="10"/>
+      <c r="N248" s="10"/>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D249" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="E249" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+      <c r="N249" s="10"/>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" s="4">
+        <v>45104</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D253" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E253" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7"/>
+      <c r="I253" s="7"/>
+      <c r="J253" s="7"/>
+      <c r="K253" s="7"/>
+      <c r="L253" s="7"/>
+      <c r="M253" s="7"/>
+      <c r="N253" s="7"/>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D254" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E254" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F254" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G254" s="28"/>
+      <c r="H254" s="28"/>
+      <c r="I254" s="28"/>
+      <c r="J254" s="28"/>
+      <c r="K254" s="28"/>
+      <c r="L254" s="28"/>
+      <c r="M254" s="28"/>
+      <c r="N254" s="28"/>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D255" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E255" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F255" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D256" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E256" s="8">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F256" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G256" s="28"/>
+      <c r="H256" s="28"/>
+      <c r="I256" s="28"/>
+      <c r="J256" s="28"/>
+      <c r="K256" s="28"/>
+      <c r="L256" s="28"/>
+      <c r="M256" s="28"/>
+      <c r="N256" s="28"/>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D257" s="8">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E257" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F257" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G257" s="28"/>
+      <c r="H257" s="28"/>
+      <c r="I257" s="28"/>
+      <c r="J257" s="28"/>
+      <c r="K257" s="28"/>
+      <c r="L257" s="28"/>
+      <c r="M257" s="28"/>
+      <c r="N257" s="28"/>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="A258" s="30"/>
+      <c r="B258" s="30"/>
+      <c r="C258" s="35"/>
+      <c r="D258" s="35"/>
+      <c r="E258" s="35"/>
+      <c r="F258" s="35"/>
+      <c r="G258" s="35"/>
+      <c r="H258" s="35"/>
+      <c r="I258" s="35"/>
+      <c r="J258" s="35"/>
+      <c r="K258" s="35"/>
+      <c r="L258" s="35"/>
+      <c r="M258" s="35"/>
+      <c r="N258" s="35"/>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259" s="30"/>
+      <c r="B259" s="30"/>
+      <c r="C259" s="35"/>
+      <c r="D259" s="35"/>
+      <c r="E259" s="35"/>
+      <c r="F259" s="35"/>
+      <c r="G259" s="35"/>
+      <c r="H259" s="35"/>
+      <c r="I259" s="35"/>
+      <c r="J259" s="35"/>
+      <c r="K259" s="35"/>
+      <c r="L259" s="35"/>
+      <c r="M259" s="35"/>
+      <c r="N259" s="35"/>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B261" s="4">
+        <v>45105</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D261" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E261" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="7"/>
+      <c r="H261" s="7"/>
+      <c r="I261" s="7"/>
+      <c r="J261" s="7"/>
+      <c r="K261" s="7"/>
+      <c r="L261" s="7"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="7"/>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D262" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E262" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F262" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G262" s="28"/>
+      <c r="H262" s="28"/>
+      <c r="I262" s="28"/>
+      <c r="J262" s="28"/>
+      <c r="K262" s="28"/>
+      <c r="L262" s="28"/>
+      <c r="M262" s="28"/>
+      <c r="N262" s="28"/>
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D263" s="8">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="E263" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F263" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="10"/>
+      <c r="K263" s="10"/>
+      <c r="L263" s="10"/>
+      <c r="M263" s="10"/>
+      <c r="N263" s="10"/>
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D264" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E264" s="8">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="F264" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G264" s="28"/>
+      <c r="H264" s="28"/>
+      <c r="I264" s="28"/>
+      <c r="J264" s="28"/>
+      <c r="K264" s="28"/>
+      <c r="L264" s="28"/>
+      <c r="M264" s="28"/>
+      <c r="N264" s="28"/>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="4"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D265" s="8">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="E265" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="F265" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G265" s="28"/>
+      <c r="H265" s="28"/>
+      <c r="I265" s="28"/>
+      <c r="J265" s="28"/>
+      <c r="K265" s="28"/>
+      <c r="L265" s="28"/>
+      <c r="M265" s="28"/>
+      <c r="N265" s="28"/>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D266" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="E266" s="8">
+        <v>0.145833333333333</v>
+      </c>
+      <c r="F266" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="G266" s="28"/>
+      <c r="H266" s="28"/>
+      <c r="I266" s="28"/>
+      <c r="J266" s="28"/>
+      <c r="K266" s="28"/>
+      <c r="L266" s="28"/>
+      <c r="M266" s="28"/>
+      <c r="N266" s="28"/>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D267" s="8">
+        <v>0.145833333333333</v>
+      </c>
+      <c r="E267" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F267" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G267" s="28"/>
+      <c r="H267" s="28"/>
+      <c r="I267" s="28"/>
+      <c r="J267" s="28"/>
+      <c r="K267" s="28"/>
+      <c r="L267" s="28"/>
+      <c r="M267" s="28"/>
+      <c r="N267" s="28"/>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D268" s="8">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E268" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F268" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="G268" s="28"/>
+      <c r="H268" s="28"/>
+      <c r="I268" s="28"/>
+      <c r="J268" s="28"/>
+      <c r="K268" s="28"/>
+      <c r="L268" s="28"/>
+      <c r="M268" s="28"/>
+      <c r="N268" s="28"/>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+      <c r="G271" s="13"/>
+      <c r="H271" s="13"/>
+      <c r="I271" s="13"/>
+      <c r="J271" s="13"/>
+      <c r="K271" s="13"/>
+      <c r="L271" s="13"/>
+      <c r="M271" s="13"/>
+      <c r="N271" s="31"/>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B272" s="15">
+        <v>45106</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D272" s="17"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="17"/>
+      <c r="H272" s="17"/>
+      <c r="I272" s="17"/>
+      <c r="J272" s="17"/>
+      <c r="K272" s="17"/>
+      <c r="L272" s="17"/>
+      <c r="M272" s="17"/>
+      <c r="N272" s="32"/>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273" s="18"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+      <c r="J273" s="21"/>
+      <c r="K273" s="21"/>
+      <c r="L273" s="21"/>
+      <c r="M273" s="21"/>
+      <c r="N273" s="33"/>
+    </row>
+    <row r="274" spans="1:14">
+      <c r="A274" s="22"/>
+      <c r="B274" s="23"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="25"/>
+      <c r="E274" s="25"/>
+      <c r="F274" s="25"/>
+      <c r="G274" s="25"/>
+      <c r="H274" s="25"/>
+      <c r="I274" s="25"/>
+      <c r="J274" s="25"/>
+      <c r="K274" s="25"/>
+      <c r="L274" s="25"/>
+      <c r="M274" s="25"/>
+      <c r="N274" s="34"/>
+    </row>
+    <row r="277" spans="1:14">
+      <c r="A277" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+    </row>
+    <row r="278" spans="1:14">
+      <c r="A278" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278" s="4">
+        <v>45107</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D278" s="6">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="E278" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="7"/>
+      <c r="H278" s="7"/>
+      <c r="I278" s="7"/>
+      <c r="J278" s="7"/>
+      <c r="K278" s="7"/>
+      <c r="L278" s="7"/>
+      <c r="M278" s="7"/>
+      <c r="N278" s="7"/>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D279" s="6">
+        <v>0.40625</v>
+      </c>
+      <c r="E279" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F279" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G279" s="28"/>
+      <c r="H279" s="28"/>
+      <c r="I279" s="28"/>
+      <c r="J279" s="28"/>
+      <c r="K279" s="28"/>
+      <c r="L279" s="28"/>
+      <c r="M279" s="28"/>
+      <c r="N279" s="28"/>
+    </row>
+    <row r="280" spans="1:14">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D280" s="8">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="E280" s="8">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="F280" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G280" s="10"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="10"/>
+      <c r="K280" s="10"/>
+      <c r="L280" s="10"/>
+      <c r="M280" s="10"/>
+      <c r="N280" s="10"/>
+    </row>
+    <row r="281" spans="1:14">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D281" s="8">
+        <v>0.534722222222222</v>
+      </c>
+      <c r="E281" s="8">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="F281" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G281" s="28"/>
+      <c r="H281" s="28"/>
+      <c r="I281" s="28"/>
+      <c r="J281" s="28"/>
+      <c r="K281" s="28"/>
+      <c r="L281" s="28"/>
+      <c r="M281" s="28"/>
+      <c r="N281" s="28"/>
+    </row>
+    <row r="282" spans="1:14">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D282" s="8">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E282" s="8">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="F282" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G282" s="28"/>
+      <c r="H282" s="28"/>
+      <c r="I282" s="28"/>
+      <c r="J282" s="28"/>
+      <c r="K282" s="28"/>
+      <c r="L282" s="28"/>
+      <c r="M282" s="28"/>
+      <c r="N282" s="28"/>
+    </row>
+    <row r="283" spans="1:14">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D283" s="8">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="E283" s="8">
+        <v>0.256944444444444</v>
+      </c>
+      <c r="F283" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="G283" s="28"/>
+      <c r="H283" s="28"/>
+      <c r="I283" s="28"/>
+      <c r="J283" s="28"/>
+      <c r="K283" s="28"/>
+      <c r="L283" s="28"/>
+      <c r="M283" s="28"/>
+      <c r="N283" s="28"/>
+    </row>
+    <row r="284" spans="1:14">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D284" s="8">
+        <v>0.256944444444444</v>
+      </c>
+      <c r="E284" s="8">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="F284" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G284" s="28"/>
+      <c r="H284" s="28"/>
+      <c r="I284" s="28"/>
+      <c r="J284" s="28"/>
+      <c r="K284" s="28"/>
+      <c r="L284" s="28"/>
+      <c r="M284" s="28"/>
+      <c r="N284" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="198">
+  <mergeCells count="268">
     <mergeCell ref="F10:N10"/>
     <mergeCell ref="F11:N11"/>
     <mergeCell ref="F12:N12"/>
@@ -5346,6 +6910,55 @@
     <mergeCell ref="F205:N205"/>
     <mergeCell ref="F206:N206"/>
     <mergeCell ref="F207:N207"/>
+    <mergeCell ref="F210:N210"/>
+    <mergeCell ref="F211:N211"/>
+    <mergeCell ref="F212:N212"/>
+    <mergeCell ref="F213:N213"/>
+    <mergeCell ref="F214:N214"/>
+    <mergeCell ref="F215:N215"/>
+    <mergeCell ref="F216:N216"/>
+    <mergeCell ref="F217:N217"/>
+    <mergeCell ref="F220:N220"/>
+    <mergeCell ref="F221:N221"/>
+    <mergeCell ref="F222:N222"/>
+    <mergeCell ref="F223:N223"/>
+    <mergeCell ref="F224:N224"/>
+    <mergeCell ref="F225:N225"/>
+    <mergeCell ref="F226:N226"/>
+    <mergeCell ref="C230:N230"/>
+    <mergeCell ref="C236:N236"/>
+    <mergeCell ref="F242:N242"/>
+    <mergeCell ref="F243:N243"/>
+    <mergeCell ref="F244:N244"/>
+    <mergeCell ref="F245:N245"/>
+    <mergeCell ref="F246:N246"/>
+    <mergeCell ref="F247:N247"/>
+    <mergeCell ref="F248:N248"/>
+    <mergeCell ref="F249:N249"/>
+    <mergeCell ref="F252:N252"/>
+    <mergeCell ref="F253:N253"/>
+    <mergeCell ref="F254:N254"/>
+    <mergeCell ref="F255:N255"/>
+    <mergeCell ref="F256:N256"/>
+    <mergeCell ref="F257:N257"/>
+    <mergeCell ref="F260:N260"/>
+    <mergeCell ref="F261:N261"/>
+    <mergeCell ref="F262:N262"/>
+    <mergeCell ref="F263:N263"/>
+    <mergeCell ref="F264:N264"/>
+    <mergeCell ref="F265:N265"/>
+    <mergeCell ref="F266:N266"/>
+    <mergeCell ref="F267:N267"/>
+    <mergeCell ref="F268:N268"/>
+    <mergeCell ref="C271:N271"/>
+    <mergeCell ref="F277:N277"/>
+    <mergeCell ref="F278:N278"/>
+    <mergeCell ref="F279:N279"/>
+    <mergeCell ref="F280:N280"/>
+    <mergeCell ref="F281:N281"/>
+    <mergeCell ref="F282:N282"/>
+    <mergeCell ref="F283:N283"/>
+    <mergeCell ref="F284:N284"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A30:A32"/>
@@ -5367,6 +6980,15 @@
     <mergeCell ref="A184:A187"/>
     <mergeCell ref="A191:A198"/>
     <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A211:A217"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="A231:A233"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="A243:A249"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A261:A268"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="A278:A284"/>
     <mergeCell ref="B11:B19"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B30:B32"/>
@@ -5388,6 +7010,15 @@
     <mergeCell ref="B184:B187"/>
     <mergeCell ref="B191:B198"/>
     <mergeCell ref="B203:B207"/>
+    <mergeCell ref="B211:B217"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="B243:B249"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B261:B268"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="B278:B284"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C81:C82"/>
@@ -5446,6 +7077,9 @@
     <mergeCell ref="C172:N174"/>
     <mergeCell ref="C178:N180"/>
     <mergeCell ref="F193:N194"/>
+    <mergeCell ref="C231:N233"/>
+    <mergeCell ref="C237:N239"/>
+    <mergeCell ref="C272:N274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
